--- a/Business 101/Business 101 Puanlar.xlsx
+++ b/Business 101/Business 101 Puanlar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oguzo\Desktop\E-Commerce\Business 101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E331E5A-FB26-4256-A002-220D8868D0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE45917-CAD4-4657-B242-53452038F4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -115,12 +115,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,25 +168,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +474,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +519,7 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
